--- a/Model Report.xlsx
+++ b/Model Report.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Week 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Week 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Week 3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
   <si>
     <t>Entities</t>
   </si>
@@ -29,187 +30,265 @@
     <t>support</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>embedding</t>
+  </si>
+  <si>
+    <t>Uji</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Cause Of Disease</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>Treatment Of Diesease</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>micro avg</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>F-1 Scores</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
     <t>excecution time</t>
   </si>
   <si>
-    <t>processor</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>batch size</t>
-  </si>
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>embedding</t>
-  </si>
-  <si>
-    <t>Uji</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>cpu</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Cause Of Disease</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>Treatment Of Diesease</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>Association</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>micro avg</t>
-  </si>
-  <si>
-    <t>macro avg</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>weighted avg</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>F-1 Scores</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.64</t>
+    <t>1/100</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>2/100</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>3/100</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>7/100</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>11/100</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>71/100</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
 </sst>
 </file>
@@ -260,7 +339,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +358,12 @@
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -286,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -294,13 +379,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -347,6 +435,24 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -360,6 +466,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -563,11 +673,27 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.25"/>
+    <col customWidth="1" min="2" max="2" width="11.5"/>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="10.5"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
+    <col customWidth="1" min="6" max="6" width="8.63"/>
+    <col customWidth="1" min="7" max="7" width="9.0"/>
+    <col customWidth="1" min="8" max="8" width="5.75"/>
+    <col customWidth="1" min="9" max="9" width="6.13"/>
+    <col customWidth="1" min="10" max="10" width="9.88"/>
+    <col customWidth="1" min="11" max="11" width="7.0"/>
+    <col customWidth="1" min="12" max="12" width="6.88"/>
+    <col customWidth="1" min="13" max="13" width="10.25"/>
+    <col customWidth="1" min="14" max="14" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,664 +736,664 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>118.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>852.8/86400</f>
         <v>0.00987037037</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>1.0</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>16.0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="10">
         <v>20.0</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>128.0</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>128.0</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>37.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>98.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>8.0</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
         <v>0.7</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>118.0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>1174.8/86400</f>
         <v>0.01359722222</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>2.0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>16.0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>40.0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>128.0</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>128.0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>37.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>98.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>8.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17">
         <v>0.71</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>118.0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <f>1277.459/86400</f>
         <v>0.01478540509</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>3.0</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <v>16.0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <v>80.0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>128.0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="11">
         <v>128.0</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="11">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>37.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>98.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>8.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17">
         <v>0.71</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>118.0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <f>1229.028/86400</f>
         <v>0.01422486111</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="11">
         <v>3.0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>16.0</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <v>100.0</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="11">
         <v>128.0</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="11">
         <v>128.0</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="11">
         <v>4.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>37.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>98.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>8.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17">
         <v>0.73</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1318,9 +1444,28 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.5"/>
+    <col customWidth="1" min="2" max="2" width="10.38"/>
+    <col customWidth="1" min="3" max="3" width="10.63"/>
+    <col customWidth="1" min="4" max="4" width="10.38"/>
+    <col customWidth="1" min="5" max="5" width="8.25"/>
+    <col customWidth="1" min="6" max="6" width="9.0"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
+    <col customWidth="1" min="8" max="8" width="6.38"/>
+    <col customWidth="1" min="9" max="9" width="8.38"/>
+    <col customWidth="1" min="10" max="10" width="9.38"/>
+    <col customWidth="1" min="11" max="11" width="8.25"/>
+    <col customWidth="1" min="12" max="12" width="6.75"/>
+    <col customWidth="1" min="13" max="13" width="10.38"/>
+    <col customWidth="1" min="14" max="14" width="6.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1362,175 +1507,338 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>118.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>4067.539/86400</f>
         <v>0.04707799769</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>1.0</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>16.0</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>30.0</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>512.0</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>128.0</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>37.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>98.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>261.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
         <v>0.75</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F10" s="9">
+        <f>2755.18/86400</f>
+        <v>0.03188865741</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="21">
+        <v>0.765</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
     <mergeCell ref="M2:M8"/>
     <mergeCell ref="N2:N8"/>
     <mergeCell ref="F2:F8"/>
@@ -1540,6 +1848,1123 @@
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="L2:L8"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="N10:N16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="L10:L16"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="N2" s="23">
+        <f>18915.204/86400</f>
+        <v>0.2189259722</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21">
+        <v>0.5939</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="21">
+        <v>0.6092</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="21">
+        <v>0.7165</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="21">
+        <v>0.7471</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="21">
+        <v>0.7739</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" s="11">
+        <v>512.0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="N42" s="25"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="N48" s="25"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="21">
+        <v>0.7816</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="M18:M24"/>
+    <mergeCell ref="M26:M32"/>
+    <mergeCell ref="M34:M40"/>
+    <mergeCell ref="M42:M48"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="L18:L24"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="G42:G48"/>
+    <mergeCell ref="H42:H48"/>
+    <mergeCell ref="I42:I48"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="L42:L48"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="K34:K40"/>
+    <mergeCell ref="L34:L40"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Model Report.xlsx
+++ b/Model Report.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Week 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Week 2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Week 3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Week 4" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="113">
   <si>
     <t>Entities</t>
   </si>
@@ -313,6 +314,45 @@
   </si>
   <si>
     <t>0.85</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>5/100</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>8/100</t>
+  </si>
+  <si>
+    <t>14/100</t>
+  </si>
+  <si>
+    <t>25/100</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>27/100</t>
+  </si>
+  <si>
+    <t>82/100</t>
   </si>
 </sst>
 </file>
@@ -407,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -499,6 +539,9 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -516,6 +559,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3128,4 +3175,2075 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N2" s="26">
+        <f>15477.774/86400</f>
+        <v>0.1791409028</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="30">
+        <v>0.5441</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="30">
+        <v>0.6015</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="30">
+        <v>0.6475</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N26" s="28"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N30" s="28"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N31" s="28"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N32" s="28"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="30">
+        <v>0.659</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N38" s="28"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N39" s="28"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N40" s="28"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="30">
+        <v>0.7356</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M42" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N42" s="28"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N45" s="28"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N46" s="28"/>
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N48" s="28"/>
+      <c r="O48" s="15"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="30">
+        <v>0.7395</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="15"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L50" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M50" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N50" s="28"/>
+      <c r="O50" s="15"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N51" s="28"/>
+      <c r="O51" s="15"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N52" s="28"/>
+      <c r="O52" s="15"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="O53" s="15"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N54" s="28"/>
+      <c r="O54" s="15"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N55" s="28"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N56" s="28"/>
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="30">
+        <v>0.7433</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="15"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N58" s="28"/>
+      <c r="O58" s="15"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N59" s="28"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N60" s="28"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N61" s="28"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N62" s="28"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N63" s="28"/>
+      <c r="O63" s="15"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N64" s="28"/>
+      <c r="O64" s="15"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="30">
+        <v>0.7471</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="15"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L66" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M66" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N66" s="28"/>
+      <c r="O66" s="15"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N67" s="28"/>
+      <c r="O67" s="15"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N68" s="28"/>
+      <c r="O68" s="15"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N69" s="28"/>
+      <c r="O69" s="15"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N70" s="28"/>
+      <c r="O70" s="15"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N71" s="28"/>
+      <c r="O71" s="15"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N72" s="28"/>
+      <c r="O72" s="15"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="30">
+        <v>0.7548</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="15"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M74" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N74" s="28"/>
+      <c r="O74" s="15"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N75" s="28"/>
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N76" s="28"/>
+      <c r="O76" s="15"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N77" s="28"/>
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N78" s="28"/>
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N79" s="28"/>
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N80" s="28"/>
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="30">
+        <v>0.7739</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="15"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="9">
+        <v>118.0</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K82" s="12">
+        <v>512.0</v>
+      </c>
+      <c r="L82" s="12">
+        <v>128.0</v>
+      </c>
+      <c r="M82" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="N82" s="28"/>
+      <c r="O82" s="15"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="N83" s="28"/>
+      <c r="O83" s="15"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="9">
+        <v>98.0</v>
+      </c>
+      <c r="N84" s="28"/>
+      <c r="O84" s="15"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N85" s="28"/>
+      <c r="O85" s="15"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N86" s="28"/>
+      <c r="O86" s="15"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N87" s="28"/>
+      <c r="O87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="9">
+        <v>261.0</v>
+      </c>
+      <c r="N88" s="28"/>
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="30">
+        <v>0.7816</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="K34:K40"/>
+    <mergeCell ref="L34:L40"/>
+    <mergeCell ref="M34:M40"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="G42:G48"/>
+    <mergeCell ref="H42:H48"/>
+    <mergeCell ref="I42:I48"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="K50:K56"/>
+    <mergeCell ref="L50:L56"/>
+    <mergeCell ref="L42:L48"/>
+    <mergeCell ref="M42:M48"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="M50:M56"/>
+    <mergeCell ref="L58:L64"/>
+    <mergeCell ref="M58:M64"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="G66:G72"/>
+    <mergeCell ref="H66:H72"/>
+    <mergeCell ref="I66:I72"/>
+    <mergeCell ref="J66:J72"/>
+    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="L66:L72"/>
+    <mergeCell ref="M66:M72"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="G74:G80"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="I74:I80"/>
+    <mergeCell ref="J74:J80"/>
+    <mergeCell ref="K74:K80"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="M10:M16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="K18:K24"/>
+    <mergeCell ref="L18:L24"/>
+    <mergeCell ref="M18:M24"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="M26:M32"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="K82:K88"/>
+    <mergeCell ref="L82:L88"/>
+    <mergeCell ref="L74:L80"/>
+    <mergeCell ref="M74:M80"/>
+    <mergeCell ref="F82:F88"/>
+    <mergeCell ref="G82:G88"/>
+    <mergeCell ref="H82:H88"/>
+    <mergeCell ref="I82:I88"/>
+    <mergeCell ref="J82:J88"/>
+    <mergeCell ref="M82:M88"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>